--- a/UgandaScrape/smart_data.xlsx
+++ b/UgandaScrape/smart_data.xlsx
@@ -19,25 +19,25 @@
     <t>ID_macro_ent</t>
   </si>
   <si>
+    <t>Country name</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>Trading Date</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
     <t>Source</t>
   </si>
   <si>
-    <t>Country Name</t>
-  </si>
-  <si>
-    <t>Index Code</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>SQL Query</t>
+    <t>Query</t>
   </si>
   <si>
     <t>Botswana</t>
@@ -58,6 +58,9 @@
     <t>Uganda Securities Exchange</t>
   </si>
   <si>
+    <t>2019-06-11</t>
+  </si>
+  <si>
     <t>7720.60</t>
   </si>
   <si>
@@ -65,9 +68,6 @@
   </si>
   <si>
     <t>1683.93</t>
-  </si>
-  <si>
-    <t>2019-06-11</t>
   </si>
   <si>
     <t>https://www.african-markets.com/en/stock-markets/bse</t>
@@ -492,23 +492,23 @@
       <c r="A2">
         <v>1474</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -518,23 +518,23 @@
       <c r="A3">
         <v>1094</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -544,23 +544,23 @@
       <c r="A4">
         <v>1522</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4">
         <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -568,9 +568,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UgandaScrape/smart_data.xlsx
+++ b/UgandaScrape/smart_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>ID_macro_ent</t>
   </si>
@@ -58,16 +58,19 @@
     <t>Uganda Securities Exchange</t>
   </si>
   <si>
-    <t>2019-06-11</t>
-  </si>
-  <si>
-    <t>7720.60</t>
-  </si>
-  <si>
-    <t>150.22</t>
-  </si>
-  <si>
-    <t>1683.93</t>
+    <t>2019-06-14</t>
+  </si>
+  <si>
+    <t>2019-06-13</t>
+  </si>
+  <si>
+    <t>7658.48</t>
+  </si>
+  <si>
+    <t>150.12</t>
+  </si>
+  <si>
+    <t>1689.44</t>
   </si>
   <si>
     <t>https://www.african-markets.com/en/stock-markets/bse</t>
@@ -79,13 +82,13 @@
     <t>https://www.african-markets.com/en/stock-markets/use</t>
   </si>
   <si>
-    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1474, 3, '2019-06-11', 7720.60</t>
-  </si>
-  <si>
-    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1094, 5, '2019-06-11', 150.22</t>
-  </si>
-  <si>
-    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1522, 3, '2019-06-11', 1683.93</t>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1474, 3, '2019-06-14', 7658.48</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1094, 5, '2019-06-14', 150.12</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1522, 3, '2019-06-13', 1689.44</t>
   </si>
 </sst>
 </file>
@@ -502,16 +505,16 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -528,16 +531,16 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -551,19 +554,19 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/UgandaScrape/smart_data.xlsx
+++ b/UgandaScrape/smart_data.xlsx
@@ -58,16 +58,16 @@
     <t>Uganda Securities Exchange</t>
   </si>
   <si>
-    <t>2019-06-11</t>
-  </si>
-  <si>
-    <t>7720.60</t>
-  </si>
-  <si>
-    <t>150.22</t>
-  </si>
-  <si>
-    <t>1683.93</t>
+    <t>2019-06-13</t>
+  </si>
+  <si>
+    <t>7658.48</t>
+  </si>
+  <si>
+    <t>150.44</t>
+  </si>
+  <si>
+    <t>1689.44</t>
   </si>
   <si>
     <t>https://www.african-markets.com/en/stock-markets/bse</t>
@@ -79,13 +79,13 @@
     <t>https://www.african-markets.com/en/stock-markets/use</t>
   </si>
   <si>
-    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1474, 3, '2019-06-11', 7720.60</t>
-  </si>
-  <si>
-    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1094, 5, '2019-06-11', 150.22</t>
-  </si>
-  <si>
-    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1522, 3, '2019-06-11', 1683.93</t>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1474, 3, '2019-06-13', 7658.48</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1094, 5, '2019-06-13', 150.44</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1522, 3, '2019-06-13', 1689.44</t>
   </si>
 </sst>
 </file>

--- a/UgandaScrape/smart_data.xlsx
+++ b/UgandaScrape/smart_data.xlsx
@@ -46,136 +46,136 @@
     <t>Kenya</t>
   </si>
   <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda </t>
+  </si>
+  <si>
     <t>Uganda</t>
   </si>
   <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda </t>
-  </si>
-  <si>
     <t>Botswana Stock Exchange</t>
   </si>
   <si>
     <t>Nairobi Securities Exchange</t>
   </si>
   <si>
+    <t>Egyptian Exchange</t>
+  </si>
+  <si>
+    <t>Malawi Stock Exchange</t>
+  </si>
+  <si>
+    <t>Stock Exchange of Mauritius</t>
+  </si>
+  <si>
+    <t>Casablanca Stock Exchange</t>
+  </si>
+  <si>
+    <t>Nigerian Stock Exchange</t>
+  </si>
+  <si>
+    <t>Rwanda Stock Exchange</t>
+  </si>
+  <si>
     <t>Uganda Securities Exchange</t>
   </si>
   <si>
-    <t>Egyptian Exchange</t>
-  </si>
-  <si>
-    <t>Malawi Stock Exchange</t>
-  </si>
-  <si>
-    <t>Stock Exchange of Mauritius</t>
-  </si>
-  <si>
-    <t>Casablanca Stock Exchange</t>
-  </si>
-  <si>
-    <t>Nigerian Stock Exchange</t>
-  </si>
-  <si>
-    <t>Rwanda Stock Exchange</t>
-  </si>
-  <si>
-    <t>2019-06-18</t>
-  </si>
-  <si>
-    <t>7655.72</t>
-  </si>
-  <si>
-    <t>148.50</t>
-  </si>
-  <si>
-    <t>1667.01</t>
-  </si>
-  <si>
-    <t>14202.86</t>
-  </si>
-  <si>
-    <t>29669.56</t>
-  </si>
-  <si>
-    <t>1967.26</t>
-  </si>
-  <si>
-    <t>11474.63</t>
-  </si>
-  <si>
-    <t>29818.80</t>
+    <t>2019-06-20</t>
+  </si>
+  <si>
+    <t>7655.88</t>
+  </si>
+  <si>
+    <t>147.58</t>
+  </si>
+  <si>
+    <t>14043.42</t>
+  </si>
+  <si>
+    <t>29669.05</t>
+  </si>
+  <si>
+    <t>1968.00</t>
+  </si>
+  <si>
+    <t>11506.77</t>
+  </si>
+  <si>
+    <t>29765.31</t>
   </si>
   <si>
     <t>127.19</t>
   </si>
   <si>
+    <t>1655.28</t>
+  </si>
+  <si>
     <t>https://www.african-markets.com/en/stock-markets/bse</t>
   </si>
   <si>
     <t>https://www.african-markets.com/en/stock-markets/nse</t>
   </si>
   <si>
+    <t>https://www.african-markets.com/en/stock-markets/egx</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/mse</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/sem</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/bvc</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/ngse</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/rse</t>
+  </si>
+  <si>
     <t>https://www.african-markets.com/en/stock-markets/use</t>
   </si>
   <si>
-    <t>https://www.african-markets.com/en/stock-markets/egx</t>
-  </si>
-  <si>
-    <t>https://www.african-markets.com/en/stock-markets/mse</t>
-  </si>
-  <si>
-    <t>https://www.african-markets.com/en/stock-markets/sem</t>
-  </si>
-  <si>
-    <t>https://www.african-markets.com/en/stock-markets/bvc</t>
-  </si>
-  <si>
-    <t>https://www.african-markets.com/en/stock-markets/ngse</t>
-  </si>
-  <si>
-    <t>https://www.african-markets.com/en/stock-markets/rse</t>
-  </si>
-  <si>
-    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1474, 3, '2019-06-18', 7655.72</t>
-  </si>
-  <si>
-    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1094, 5, '2019-06-18', 148.50</t>
-  </si>
-  <si>
-    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1522, 3, '2019-06-18', 1667.01</t>
-  </si>
-  <si>
-    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1451, 3, '2019-06-18', 14202.86</t>
-  </si>
-  <si>
-    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1519, 3, '2019-06-18', 29669.56</t>
-  </si>
-  <si>
-    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1462, 3, '2019-06-18', 1967.26</t>
-  </si>
-  <si>
-    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1511, 3, '2019-06-18', 11474.63</t>
-  </si>
-  <si>
-    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1453, 3, '2019-06-18', 29818.80</t>
-  </si>
-  <si>
-    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1520, 3, '2019-06-18', 127.19</t>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1474, 3, '2019-06-20', 7655.88</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1094, 5, '2019-06-20', 147.58</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1451, 3, '2019-06-20', 14043.42</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1519, 3, '2019-06-20', 29669.05</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1462, 3, '2019-06-20', 1968.00</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1511, 3, '2019-06-20', 11506.77</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1453, 3, '2019-06-20', 29765.31</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1520, 3, '2019-06-20', 127.19</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1522, 3, '2019-06-20', 1655.28</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>1522</v>
+        <v>1451</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>1451</v>
+        <v>1519</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>1519</v>
+        <v>1462</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>1462</v>
+        <v>1511</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>1511</v>
+        <v>1453</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>1453</v>
+        <v>1520</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>

--- a/UgandaScrape/smart_data.xlsx
+++ b/UgandaScrape/smart_data.xlsx
@@ -1,37 +1,175 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+  <si>
+    <t>ID_macro_ent</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>Trading Date</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Botswana Stock Exchange</t>
+  </si>
+  <si>
+    <t>Nairobi Securities Exchange</t>
+  </si>
+  <si>
+    <t>Egyptian Exchange</t>
+  </si>
+  <si>
+    <t>Malawi Stock Exchange</t>
+  </si>
+  <si>
+    <t>Stock Exchange of Mauritius</t>
+  </si>
+  <si>
+    <t>Casablanca Stock Exchange</t>
+  </si>
+  <si>
+    <t>Nigerian Stock Exchange</t>
+  </si>
+  <si>
+    <t>Uganda Securities Exchange</t>
+  </si>
+  <si>
+    <t>2019-06-26</t>
+  </si>
+  <si>
+    <t>2019-06-25</t>
+  </si>
+  <si>
+    <t>7652.62</t>
+  </si>
+  <si>
+    <t>148.38</t>
+  </si>
+  <si>
+    <t>14006.99</t>
+  </si>
+  <si>
+    <t>29669.58</t>
+  </si>
+  <si>
+    <t>1998.81</t>
+  </si>
+  <si>
+    <t>11291.82</t>
+  </si>
+  <si>
+    <t>29609.00</t>
+  </si>
+  <si>
+    <t>1627.70</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/bse</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/nse</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/egx</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/mse</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/sem</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/bvc</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/ngse</t>
+  </si>
+  <si>
+    <t>https://www.african-markets.com/en/stock-markets/use</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1474, 3, '2019-06-26', 7652.62</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1094, 5, '2019-06-26', 148.38</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1451, 3, '2019-06-26', 14006.99</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1519, 3, '2019-06-26', 29669.58</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1462, 3, '2019-06-26', 1998.81</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1511, 3, '2019-06-26', 11291.82</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1453, 3, '2019-06-26', 29609.00</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1522, 3, '2019-06-25', 1627.70</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +184,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -353,321 +506,231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID_macro_ent</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>INDEX</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trading Date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Query</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
         <v>1474</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Botswana Stock Exchange</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2019-06-25</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7652.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.african-markets.com/en/stock-markets/bse</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1474, 3, '2019-06-25', 7652.21</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
         <v>1094</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Nairobi Securities Exchange</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2019-06-25</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>148.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.african-markets.com/en/stock-markets/nse</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1094, 5, '2019-06-25', 148.41</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
         <v>1451</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Egyptian Exchange</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2019-06-25</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13831.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.african-markets.com/en/stock-markets/egx</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1451, 3, '2019-06-25', 13831.23</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>1519</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Malawi Stock Exchange</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2019-06-25</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>29669.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.african-markets.com/en/stock-markets/mse</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1519, 3, '2019-06-25', 29669.58</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
         <v>1462</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Stock Exchange of Mauritius</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2019-06-25</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1995.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.african-markets.com/en/stock-markets/sem</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1462, 3, '2019-06-25', 1995.63</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>1511</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Casablanca Stock Exchange</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2019-06-25</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11303.82</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://www.african-markets.com/en/stock-markets/bvc</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1511, 3, '2019-06-25', 11303.82</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>1453</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Nigerian Stock Exchange</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2019-06-25</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>29668.68</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://www.african-markets.com/en/stock-markets/ngse</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1453, 3, '2019-06-25', 29668.68</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>1522</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Uganda Securities Exchange</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2019-06-25</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1627.70</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://www.african-markets.com/en/stock-markets/use</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1522, 3, '2019-06-25', 1627.70</t>
-        </is>
+      <c r="G9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>